--- a/Dossier.xlsx
+++ b/Dossier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhaachen-my.sharepoint.com/personal/nh1236s_ad_fh-aachen_de/Documents/Semester 3/DBWT/Praktika/M6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49152\Desktop\Fh-Aachen\3. Semester\DBWT\M6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{B751F3D7-05B9-49FA-937C-00207C51B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11E58A67-DBB0-4DE0-9D02-679CA1ACB0D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462D8854-6049-424C-96D1-C301B303C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M6" sheetId="6" r:id="rId1"/>
@@ -258,8 +258,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -548,18 +548,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F23473-93C6-4608-A05A-AD57ACA416C3}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -594,7 +594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -652,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -666,7 +666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -719,9 +719,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
+      </c>
+      <c r="C13">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>SUM(C2:C13)/60</f>
+        <v>5.7</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)/60</f>
+        <v>8.0333333333333332</v>
       </c>
     </row>
   </sheetData>
@@ -737,15 +755,15 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -777,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -791,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -805,7 +823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -816,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -827,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -841,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2</v>
       </c>
@@ -855,7 +873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>3</v>
       </c>
@@ -869,7 +887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>4</v>
       </c>
@@ -880,7 +898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
@@ -897,7 +915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2</v>
       </c>
@@ -908,7 +926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>3</v>
       </c>
@@ -919,7 +937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>5</v>
       </c>
@@ -930,7 +948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5</v>
       </c>
@@ -947,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2</v>
       </c>
@@ -958,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>3</v>
       </c>
@@ -976,9 +994,9 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1010,7 +1028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1021,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1035,7 +1053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -1049,7 +1067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>6</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1127,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="str">
@@ -1225,7 +1243,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1239,15 +1257,15 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1289,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1383,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1418,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>3</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1481,7 +1499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1493,7 +1511,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1504,7 +1522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1518,7 +1536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18">
         <f>SUM(C2:C16)</f>
         <v>296</v>
@@ -1563,7 +1581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1577,7 +1595,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
